--- a/back/src/main/resources/static/load/Programacion.xlsx
+++ b/back/src/main/resources/static/load/Programacion.xlsx
@@ -468,7 +468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -508,18 +510,10 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -531,18 +525,10 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -554,18 +540,10 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -577,18 +555,10 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -600,18 +570,10 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -623,18 +585,10 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -646,18 +600,10 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -669,18 +615,10 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -692,18 +630,10 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -715,18 +645,10 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -740,12 +662,8 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -759,12 +677,8 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -778,12 +692,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -797,12 +707,8 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -816,12 +722,8 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -835,12 +737,8 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -854,12 +752,8 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -873,12 +767,8 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -892,12 +782,8 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -911,12 +797,8 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -930,12 +812,8 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -949,12 +827,8 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -968,12 +842,8 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -987,12 +857,8 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/back/src/main/resources/static/load/Programacion.xlsx
+++ b/back/src/main/resources/static/load/Programacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Hora / Correlativa</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Turno</t>
+  </si>
+  <si>
+    <t>Giros</t>
   </si>
 </sst>
 </file>
@@ -466,18 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="17.77734375" customWidth="1"/>
+    <col min="1" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -499,8 +502,11 @@
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -514,8 +520,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -529,8 +536,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,8 +552,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,8 +568,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,8 +584,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -589,8 +600,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -604,8 +616,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,8 +632,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -634,8 +648,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,8 +664,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,8 +680,9 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,8 +696,9 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -694,8 +712,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,8 +728,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -724,8 +744,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,8 +760,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -754,8 +776,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -769,8 +792,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -784,8 +808,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,8 +824,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +840,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,8 +856,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,8 +872,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,6 +888,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
